--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A180E944-C0F5-498E-B1CB-6D892FD66A78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE775DB4-73B1-45E4-99A1-CC0097512217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -387,7 +387,7 @@
     <t>S1aH5,S2aH4,S2aH5,S1aH3,S1aH4,S2aH2,S1aH2,S2aH3</t>
   </si>
   <si>
-    <t>S2aH1,S1aH6,S2aH6,S2aH8,S1aH1,S2aH7,S1aH7,S1aH8</t>
+    <t>S1aH8,S1aH6,S1aH1,S2aH7,S2aH8,S1aH7,S2aH1,S2aH6</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -959,7 +959,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S2aH1,S1aH6,S2aH6,S2aH8,S1aH1,S2aH7,S1aH7,S1aH8</v>
+        <v>S1aH8,S1aH6,S1aH1,S2aH7,S2aH8,S1aH7,S2aH1,S2aH6</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CD8259-B3A7-45A0-90A5-A0A3F21EEFE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0077A30A-D762-4EB6-AF16-2AB872365914}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1715,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFB0CBE5-59DB-4721-A26E-91F9C4DCA56C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4053A00-1CB7-4164-8D2F-A02CBBA1590E}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1794,10 +1794,10 @@
         <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N4">
-        <v>0.3448750578435909</v>
+        <v>0.855124942156409</v>
       </c>
       <c r="O4" t="s">
         <v>121</v>
@@ -1829,10 +1829,10 @@
         <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N5">
-        <v>0.855124942156409</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O5" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01CC437C-C6B2-4885-B709-8C6D56022AAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0186768-115D-4019-8443-7829A2AF23A5}">
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>

--- a/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
+++ b/VerveStacks_ITA_grids/SuppXLS/scen_tsparameters_ts24_clu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda\Veda_models\vervestacks_models\VerveStacks_ITA_grids\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE775DB4-73B1-45E4-99A1-CC0097512217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C61344D0-E559-45D9-A72A-B969BC05DFA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="17475" firstSheet="4" activeTab="4" xr2:uid="{693B72C3-6B34-4E45-9416-347F2176C33F}"/>
   </bookViews>
@@ -384,10 +384,10 @@
     <t>day_night</t>
   </si>
   <si>
-    <t>S1aH5,S2aH4,S2aH5,S1aH3,S1aH4,S2aH2,S1aH2,S2aH3</t>
-  </si>
-  <si>
-    <t>S1aH8,S1aH6,S1aH1,S2aH7,S2aH8,S1aH7,S2aH1,S2aH6</t>
+    <t>S1aH3,S1aH5,S2aH4,S2aH5,S1aH2,S2aH3,S1aH4,S2aH2</t>
+  </si>
+  <si>
+    <t>S1aH7,S1aH8,S1aH6,S2aH8,S2aH1,S2aH6,S1aH1,S2aH7</t>
   </si>
   <si>
     <t>elc_buildings</t>
@@ -959,7 +959,7 @@
       </c>
       <c r="G7" t="str">
         <f>C14</f>
-        <v>S1aH8,S1aH6,S1aH1,S2aH7,S2aH8,S1aH7,S2aH1,S2aH6</v>
+        <v>S1aH7,S1aH8,S1aH6,S2aH8,S2aH1,S2aH6,S1aH1,S2aH7</v>
       </c>
       <c r="H7">
         <f>1+H8</f>
@@ -991,7 +991,7 @@
       </c>
       <c r="G8" t="str">
         <f>C13</f>
-        <v>S1aH5,S2aH4,S2aH5,S1aH3,S1aH4,S2aH2,S1aH2,S2aH3</v>
+        <v>S1aH3,S1aH5,S2aH4,S2aH5,S1aH2,S2aH3,S1aH4,S2aH2</v>
       </c>
       <c r="H8">
         <f>-$H$1</f>
@@ -1604,7 +1604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0077A30A-D762-4EB6-AF16-2AB872365914}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7876927F-BDF5-4736-9362-E5EBC97BE782}">
   <dimension ref="B2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1715,7 +1715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4053A00-1CB7-4164-8D2F-A02CBBA1590E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8B0C5C2-3742-497D-A142-D6D5C3CD772F}">
   <dimension ref="B2:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1794,10 +1794,10 @@
         <v>110</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="N4">
-        <v>0.855124942156409</v>
+        <v>0.3448750578435909</v>
       </c>
       <c r="O4" t="s">
         <v>121</v>
@@ -1829,10 +1829,10 @@
         <v>110</v>
       </c>
       <c r="M5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N5">
-        <v>0.3448750578435909</v>
+        <v>0.85512494215640922</v>
       </c>
       <c r="O5" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0186768-115D-4019-8443-7829A2AF23A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5FD1E8F-6B43-4971-A59F-5F9970E20CEF}">
   <dimension ref="B2:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
